--- a/nBackCond3.xlsx
+++ b/nBackCond3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\n-back-alpha2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E2BC4A-A616-4A7B-A804-B7A101ED4472}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346DDCE8-535C-4821-B067-38E5076F7016}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="16536" windowHeight="8832" xr2:uid="{08FA4361-AB6D-4464-9F2C-E2E336805E1A}"/>
   </bookViews>
@@ -36,16 +36,16 @@
     <t>space</t>
   </si>
   <si>
-    <t>squareT3</t>
+    <t>square</t>
   </si>
   <si>
-    <t>loc1T3</t>
+    <t>loc1</t>
   </si>
   <si>
-    <t>loc2T3</t>
+    <t>loc2</t>
   </si>
   <si>
-    <t>corrAnsT3</t>
+    <t>corrAns</t>
   </si>
 </sst>
 </file>
@@ -412,7 +412,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -433,10 +433,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -458,7 +458,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="1">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="C4" s="1">
         <v>-0.2</v>
@@ -466,13 +466,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="C5" s="1">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
@@ -505,13 +505,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>-0.2</v>
       </c>
       <c r="C8" s="1">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -538,13 +538,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
         <v>-0.2</v>
       </c>
       <c r="C11" s="1">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
@@ -599,10 +599,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="1">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="C16" s="1">
         <v>-0.2</v>
@@ -646,13 +646,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B20" s="1">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="C20" s="1">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -682,13 +682,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B23" s="1">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="C23" s="1">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -715,13 +715,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B26" s="1">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="C26" s="1">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="D26" t="s">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>2</v>
       </c>
       <c r="B28" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C28" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -779,10 +779,10 @@
         <v>2</v>
       </c>
       <c r="B31" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C31" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D31" t="s">
         <v>0</v>
